--- a/测试小组时间安排.xlsx
+++ b/测试小组时间安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="周例会" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,46 @@
   </si>
   <si>
     <t>闫京华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫京华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲欢欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲欢欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周娇娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮休人员3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲欢欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周娇娇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,8 +295,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -268,11 +310,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,9 +646,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -692,6 +736,14 @@
       </c>
       <c r="B10" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -708,10 +760,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -807,6 +859,28 @@
       </c>
       <c r="C8" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -822,9 +896,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -834,7 +908,7 @@
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -844,8 +918,11 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -856,7 +933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -867,7 +944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -875,7 +952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -886,7 +963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -897,7 +974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -908,18 +985,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -928,6 +1002,9 @@
       </c>
       <c r="C9" t="s">
         <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/测试小组时间安排.xlsx
+++ b/测试小组时间安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="周例会" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,82 @@
   </si>
   <si>
     <t>周娇娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫京华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雒振杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍翠敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲欢欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周娇娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周娇娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍翠敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雒振杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍翠敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -744,6 +820,22 @@
       </c>
       <c r="B11" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -760,10 +852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -881,6 +973,28 @@
       </c>
       <c r="C10" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -896,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1007,6 +1121,39 @@
         <v>51</v>
       </c>
     </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/测试小组时间安排.xlsx
+++ b/测试小组时间安排.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-32400" yWindow="-400" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="周例会" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>仲欢欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周娇娇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,6 +308,26 @@
   </si>
   <si>
     <t>鲍翠敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍翠敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雒振杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫京华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,8 +387,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -386,13 +406,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -824,18 +848,26 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
         <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" t="s">
-        <v>69</v>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -852,10 +884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -977,24 +1009,35 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1012,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1134,7 +1177,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -1145,13 +1188,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/测试小组时间安排.xlsx
+++ b/测试小组时间安排.xlsx
@@ -7,9 +7,10 @@
     <workbookView xWindow="-32400" yWindow="-400" windowWidth="25520" windowHeight="15540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="周例会" sheetId="1" r:id="rId1"/>
-    <sheet name="周总结" sheetId="2" r:id="rId2"/>
-    <sheet name="轮休" sheetId="3" r:id="rId3"/>
+    <sheet name="轮休" sheetId="3" r:id="rId1"/>
+    <sheet name="周例会" sheetId="1" r:id="rId2"/>
+    <sheet name="周总结" sheetId="2" r:id="rId3"/>
+    <sheet name="线上跟踪" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,27 +252,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2016.05.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周娇娇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>鲍翠敏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2016.05.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雒振杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.04.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>徐文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>鲍翠敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍翠敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雒振杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雒振杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍翠敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>周娇娇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016.05.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.05.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.04.22</t>
+    <t>2016.05.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫京华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍翠敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.06.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲欢欢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,47 +360,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徐文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.04.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲍翠敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.05.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雒振杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.04.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲍翠敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.05.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲍翠敏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雒振杰</t>
+    <t>2016.05.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.05.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫京华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.16-05.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,6 +389,10 @@
   </si>
   <si>
     <t>闫京华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仲欢欢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,8 +452,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -406,17 +473,19 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -746,128 +815,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -884,10 +1006,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1009,189 +1277,46 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1204,4 +1329,45 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>